--- a/artfynd/A 68385-2021.xlsx
+++ b/artfynd/A 68385-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY21"/>
+  <dimension ref="A1:AY22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3103,6 +3103,127 @@
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>112183052</v>
+      </c>
+      <c r="B22" t="n">
+        <v>77597</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>864</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Knottrig blåslav</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Hypogymnia bitteri</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(Lynge) Ahti</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Tjappsåive, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>699856.6862899091</v>
+      </c>
+      <c r="R22" t="n">
+        <v>7309603.113012934</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 68385-2021.xlsx
+++ b/artfynd/A 68385-2021.xlsx
@@ -3149,10 +3149,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>699856.6862899091</v>
+        <v>699857</v>
       </c>
       <c r="R22" t="n">
-        <v>7309603.113012934</v>
+        <v>7309603</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3182,19 +3182,9 @@
           <t>2023-08-17</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>2023-08-17</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">

--- a/artfynd/A 68385-2021.xlsx
+++ b/artfynd/A 68385-2021.xlsx
@@ -3108,7 +3108,7 @@
         <v>112183052</v>
       </c>
       <c r="B22" t="n">
-        <v>77597</v>
+        <v>77717</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>

--- a/artfynd/A 68385-2021.xlsx
+++ b/artfynd/A 68385-2021.xlsx
@@ -3108,7 +3108,7 @@
         <v>112183052</v>
       </c>
       <c r="B22" t="n">
-        <v>77717</v>
+        <v>77731</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
